--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,7 @@
     <t>Fzd6</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.081504</v>
+        <v>11.4621665</v>
       </c>
       <c r="N2">
-        <v>50.163008</v>
+        <v>22.924333</v>
       </c>
       <c r="O2">
-        <v>0.6708018861614671</v>
+        <v>0.9441106217120846</v>
       </c>
       <c r="P2">
-        <v>0.579958390249514</v>
+        <v>0.9320562266826696</v>
       </c>
       <c r="Q2">
-        <v>115.853674148352</v>
+        <v>1.4398200448975</v>
       </c>
       <c r="R2">
-        <v>695.122044890112</v>
+        <v>5.75928017959</v>
       </c>
       <c r="S2">
-        <v>0.6708018861614671</v>
+        <v>0.0249951273549395</v>
       </c>
       <c r="T2">
-        <v>0.579958390249514</v>
+        <v>0.01659712835611562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +620,22 @@
         <v>0.942103</v>
       </c>
       <c r="O3">
-        <v>0.008398811455623191</v>
+        <v>0.02586624000639611</v>
       </c>
       <c r="P3">
-        <v>0.0108921007952561</v>
+        <v>0.03830397016682768</v>
       </c>
       <c r="Q3">
-        <v>1.450552220688</v>
+        <v>0.03944742278166667</v>
       </c>
       <c r="R3">
-        <v>13.054969986192</v>
+        <v>0.23668453669</v>
       </c>
       <c r="S3">
-        <v>0.008398811455623191</v>
+        <v>0.0006848031875553534</v>
       </c>
       <c r="T3">
-        <v>0.0108921007952561</v>
+        <v>0.0006820789252922471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5953364999999999</v>
+        <v>0.364502</v>
       </c>
       <c r="N4">
-        <v>1.190673</v>
+        <v>0.729004</v>
       </c>
       <c r="O4">
-        <v>0.01592220494834625</v>
+        <v>0.03002313828151931</v>
       </c>
       <c r="P4">
-        <v>0.01376593677144639</v>
+        <v>0.02963980315050269</v>
       </c>
       <c r="Q4">
-        <v>2.749911683112</v>
+        <v>0.04578691873</v>
       </c>
       <c r="R4">
-        <v>16.499470098672</v>
+        <v>0.18314767492</v>
       </c>
       <c r="S4">
-        <v>0.01592220494834625</v>
+        <v>0.000794856182828103</v>
       </c>
       <c r="T4">
-        <v>0.01376593677144639</v>
+        <v>0.0005277960741593533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +726,164 @@
         <v>13.857264</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9735252132746771</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9821929966444328</v>
       </c>
       <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>11.4621665</v>
+      </c>
+      <c r="N5">
+        <v>22.924333</v>
+      </c>
+      <c r="O5">
+        <v>0.9441106217120846</v>
+      </c>
+      <c r="P5">
+        <v>0.9320562266826696</v>
+      </c>
+      <c r="Q5">
+        <v>52.94475573415201</v>
+      </c>
+      <c r="R5">
+        <v>317.668534404912</v>
+      </c>
+      <c r="S5">
+        <v>0.9191154943571451</v>
+      </c>
+      <c r="T5">
+        <v>0.915459098326554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>11.39945533333333</v>
-      </c>
-      <c r="N5">
-        <v>34.198366</v>
-      </c>
-      <c r="O5">
-        <v>0.3048770974345635</v>
-      </c>
-      <c r="P5">
-        <v>0.3953835721837836</v>
-      </c>
-      <c r="Q5">
-        <v>52.65508733673601</v>
-      </c>
-      <c r="R5">
-        <v>473.895786030624</v>
-      </c>
-      <c r="S5">
-        <v>0.3048770974345635</v>
-      </c>
-      <c r="T5">
-        <v>0.3953835721837836</v>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H6">
+        <v>13.857264</v>
+      </c>
+      <c r="I6">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J6">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.3140343333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.942103</v>
+      </c>
+      <c r="O6">
+        <v>0.02586624000639611</v>
+      </c>
+      <c r="P6">
+        <v>0.03830397016682768</v>
+      </c>
+      <c r="Q6">
+        <v>1.450552220688</v>
+      </c>
+      <c r="R6">
+        <v>13.054969986192</v>
+      </c>
+      <c r="S6">
+        <v>0.02518143681884076</v>
+      </c>
+      <c r="T6">
+        <v>0.03762189124153543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H7">
+        <v>13.857264</v>
+      </c>
+      <c r="I7">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J7">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.364502</v>
+      </c>
+      <c r="N7">
+        <v>0.729004</v>
+      </c>
+      <c r="O7">
+        <v>0.03002313828151931</v>
+      </c>
+      <c r="P7">
+        <v>0.02963980315050269</v>
+      </c>
+      <c r="Q7">
+        <v>1.683666814176</v>
+      </c>
+      <c r="R7">
+        <v>10.102000885056</v>
+      </c>
+      <c r="S7">
+        <v>0.02922828209869121</v>
+      </c>
+      <c r="T7">
+        <v>0.02911200707634334</v>
       </c>
     </row>
   </sheetData>
